--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T12:54:55+00:00</t>
+    <t>2024-05-27T13:06:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:06:19+00:00</t>
+    <t>2024-05-27T13:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:23:31+00:00</t>
+    <t>2024-05-27T13:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:32:38+00:00</t>
+    <t>2024-05-28T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:43:22+00:00</t>
+    <t>2024-05-28T09:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:33:56+00:00</t>
+    <t>2024-05-28T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the AllergyIntolerance resource is derived from the IPS AllergyIntolerance resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide.</t>
+    <t>This AT IPS profile for the Medication resource is derived from the IPS Medication resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -682,7 +682,7 @@
   </si>
   <si>
     <t>CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
-Reference(Substance|Medication)</t>
+Reference(Substance|https://fhir.hl7.at/elga-austrianpatientsummary-r4/StructureDefinition/at-ips-medication)</t>
   </si>
   <si>
     <t>The actual ingredient or content</t>
@@ -1150,7 +1150,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the Medication resource is derived from the IPS Medication resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide.</t>
+    <t>This AT IPS profile for the Medication resource is derived from the IPS Medication resource in absence of a corresponding profile in the HL7® Austria FHIR® Core implementation guide.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-medication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
